--- a/app/Отчеты/Nash_dom.xlsx
+++ b/app/Отчеты/Nash_dom.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -244,11 +239,6 @@
     </r>
   </si>
   <si>
-    <t>Р/с ${Group.bank_account}
-в ${Group.bank_name}
-БИК ${Group.bank_bik}        К/с ${Group.bank_correction}</t>
-  </si>
-  <si>
     <t>${Group.grp_fname}</t>
   </si>
   <si>
@@ -324,6 +314,12 @@
   <si>
     <t>СЧЕТ-ИЗВЕЩЕНИЕ    За тех. обслуживание и коммунальные услуги</t>
   </si>
+  <si>
+    <t>Р/с ${Group.bank_account}
+в ${Group.bank_name}
+БИК ${Group.bank_bik}        К/с ${Group.bank_correction}
+ИНН ${Group.group_inn}</t>
+  </si>
 </sst>
 </file>
 
@@ -332,7 +328,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1244,10 +1240,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1257,12 +1301,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1274,48 +1312,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1715,10 +1711,10 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23:R23"/>
+      <selection activeCell="N3" sqref="N3:R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
@@ -1736,13 +1732,13 @@
     <col min="20" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1">
+    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="28"/>
     </row>
-    <row r="2" spans="1:18" ht="23.25" customHeight="1">
+    <row r="2" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -1753,18 +1749,18 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="125" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-    </row>
-    <row r="3" spans="1:18" ht="39.75" customHeight="1">
+      <c r="K2" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+    </row>
+    <row r="3" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="90"/>
@@ -1775,20 +1771,20 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="124" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124" t="s">
+      <c r="K3" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-    </row>
-    <row r="4" spans="1:18" ht="18" customHeight="1">
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+    </row>
+    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" s="3"/>
       <c r="C4"/>
@@ -1801,16 +1797,16 @@
       <c r="J4" s="28"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="117" t="s">
+      <c r="M4" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-    </row>
-    <row r="5" spans="1:18" ht="18" customHeight="1">
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+    </row>
+    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="3"/>
       <c r="C5"/>
@@ -1829,10 +1825,10 @@
       <c r="N5" s="82"/>
       <c r="O5" s="83"/>
       <c r="P5" s="83"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-    </row>
-    <row r="6" spans="1:18" ht="18" customHeight="1">
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+    </row>
+    <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="3"/>
       <c r="C6"/>
@@ -1845,18 +1841,18 @@
       <c r="J6" s="28"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="119" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="118" t="s">
+      <c r="M6" s="128" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="118"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
+      <c r="R6" s="127"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7"/>
@@ -1876,7 +1872,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8"/>
@@ -1900,7 +1896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75">
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -1924,7 +1920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10"/>
       <c r="C10" s="10"/>
@@ -1938,7 +1934,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
@@ -1948,7 +1944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="18.75" thickBot="1">
+    <row r="11" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1962,7 +1958,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N11" s="110"/>
       <c r="O11" s="110"/>
@@ -1972,7 +1968,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="3.95" customHeight="1" thickBot="1">
+    <row r="12" spans="1:18" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1992,7 +1988,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="21"/>
     </row>
-    <row r="13" spans="1:18" ht="17.25" customHeight="1">
+    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2005,20 +2001,20 @@
       <c r="J13" s="28"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="120" t="s">
+      <c r="M13" s="133" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="85" t="s">
         <v>52</v>
-      </c>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="85" t="s">
-        <v>53</v>
       </c>
       <c r="Q13" s="86" t="s">
         <v>44</v>
       </c>
       <c r="R13" s="84"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75">
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
         <v>32</v>
       </c>
@@ -2040,7 +2036,7 @@
       <c r="Q14" s="89"/>
       <c r="R14" s="21"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2053,18 +2049,18 @@
       <c r="J15" s="28"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="122" t="s">
+      <c r="M15" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
       <c r="P15" s="76" t="s">
         <v>34</v>
       </c>
       <c r="Q15" s="102"/>
       <c r="R15" s="84"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>1</v>
       </c>
@@ -2086,7 +2082,7 @@
       <c r="Q16" s="101"/>
       <c r="R16" s="21"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2106,7 +2102,7 @@
       <c r="Q17" s="88"/>
       <c r="R17" s="21"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -2119,16 +2115,16 @@
       <c r="J18" s="28"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="21"/>
     </row>
-    <row r="19" spans="1:18" s="27" customFormat="1" ht="3.95" customHeight="1">
+    <row r="19" spans="1:18" s="27" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -2148,7 +2144,7 @@
       <c r="Q19" s="25"/>
       <c r="R19" s="26"/>
     </row>
-    <row r="20" spans="1:18" s="93" customFormat="1" ht="3.95" customHeight="1">
+    <row r="20" spans="1:18" s="93" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2168,35 +2164,35 @@
       <c r="Q20" s="88"/>
       <c r="R20" s="21"/>
     </row>
-    <row r="21" spans="1:18" ht="18">
+    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="114" t="s">
+      <c r="C21" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
       <c r="I21" s="20"/>
       <c r="J21" s="28"/>
       <c r="K21" s="112" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="11"/>
-      <c r="M21" s="115" t="s">
+      <c r="M21" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="115"/>
-      <c r="R21" s="115"/>
-    </row>
-    <row r="22" spans="1:18" ht="18">
+      <c r="N21" s="129"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="129"/>
+    </row>
+    <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="113"/>
@@ -2209,16 +2205,16 @@
       <c r="J22" s="28"/>
       <c r="K22" s="112"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="N22" s="115"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="115"/>
-      <c r="R22" s="115"/>
-    </row>
-    <row r="23" spans="1:18" ht="18">
+      <c r="M22" s="129" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" s="129"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="129"/>
+      <c r="R22" s="129"/>
+    </row>
+    <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="35" t="s">
@@ -2229,24 +2225,24 @@
       <c r="F23" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="116" t="s">
+      <c r="G23" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="116"/>
+      <c r="H23" s="131"/>
       <c r="I23" s="37"/>
       <c r="J23" s="38"/>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
-      <c r="M23" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="117"/>
-    </row>
-    <row r="24" spans="1:18" ht="18">
+      <c r="M23" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="132"/>
+      <c r="Q23" s="132"/>
+      <c r="R23" s="132"/>
+    </row>
+    <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="40" t="s">
@@ -2261,15 +2257,15 @@
       <c r="K24" s="42"/>
       <c r="L24" s="42"/>
       <c r="M24" s="83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N24" s="82"/>
       <c r="O24" s="83"/>
       <c r="P24" s="83"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
-    </row>
-    <row r="25" spans="1:18" ht="18">
+      <c r="Q24" s="127"/>
+      <c r="R24" s="127"/>
+    </row>
+    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="40"/>
@@ -2284,40 +2280,40 @@
       <c r="J25" s="38"/>
       <c r="K25" s="42"/>
       <c r="L25" s="42"/>
-      <c r="M25" s="119" t="s">
-        <v>54</v>
-      </c>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="118" t="s">
-        <v>57</v>
-      </c>
-      <c r="R25" s="118"/>
-    </row>
-    <row r="26" spans="1:18" ht="17.25" customHeight="1" thickBot="1">
+      <c r="M25" s="128" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="127" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" s="127"/>
+    </row>
+    <row r="26" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="129" t="s">
+      <c r="C26" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
       <c r="I26" s="43"/>
       <c r="J26" s="38"/>
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="129"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.75">
+      <c r="M26" s="117"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="117"/>
+      <c r="R26" s="117"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="42" t="s">
@@ -2345,7 +2341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.75">
+    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="42" t="s">
@@ -2373,7 +2369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75">
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="42" t="s">
@@ -2391,7 +2387,7 @@
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
       <c r="M29" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
@@ -2401,7 +2397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="16.5" thickBot="1">
+    <row r="30" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="42" t="s">
@@ -2419,7 +2415,7 @@
       <c r="K30" s="42"/>
       <c r="L30" s="42"/>
       <c r="M30" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N30" s="42"/>
       <c r="O30" s="42"/>
@@ -2429,7 +2425,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="27.75" customHeight="1">
+    <row r="31" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="4"/>
@@ -2442,16 +2438,16 @@
       <c r="J31" s="38"/>
       <c r="K31" s="42"/>
       <c r="L31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q31" s="44"/>
       <c r="R31" s="49"/>
     </row>
-    <row r="32" spans="1:18" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="32" spans="1:18" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
@@ -2471,12 +2467,12 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
     </row>
-    <row r="33" spans="1:19" ht="30.75" thickBot="1">
+    <row r="33" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="50"/>
-      <c r="B33" s="133" t="s">
+      <c r="B33" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="134"/>
+      <c r="C33" s="122"/>
       <c r="D33" s="51" t="s">
         <v>16</v>
       </c>
@@ -2495,10 +2491,10 @@
       <c r="I33" s="53"/>
       <c r="J33" s="38"/>
       <c r="K33" s="50"/>
-      <c r="L33" s="133" t="s">
+      <c r="L33" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="134"/>
+      <c r="M33" s="122"/>
       <c r="N33" s="51" t="s">
         <v>16</v>
       </c>
@@ -2518,7 +2514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.75">
+    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="54" t="s">
         <v>22</v>
       </c>
@@ -2540,14 +2536,14 @@
       <c r="Q34" s="56"/>
       <c r="R34" s="58"/>
     </row>
-    <row r="35" spans="1:19" ht="15.75">
+    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="135" t="s">
+      <c r="B35" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="136"/>
+      <c r="C35" s="124"/>
       <c r="D35" s="60" t="s">
         <v>25</v>
       </c>
@@ -2568,10 +2564,10 @@
       <c r="K35" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="135" t="s">
+      <c r="L35" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="136"/>
+      <c r="M35" s="124"/>
       <c r="N35" s="60" t="s">
         <v>25</v>
       </c>
@@ -2588,7 +2584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="16.5" thickBot="1">
+    <row r="36" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="64" t="s">
         <v>1</v>
       </c>
@@ -2610,13 +2606,13 @@
       <c r="Q36" s="56"/>
       <c r="R36" s="58"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5" thickBot="1">
+    <row r="37" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="65"/>
-      <c r="B37" s="130" t="s">
+      <c r="B37" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="131"/>
-      <c r="D37" s="132"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="120"/>
       <c r="E37" s="73" t="s">
         <v>31</v>
       </c>
@@ -2630,11 +2626,11 @@
       <c r="I37" s="63"/>
       <c r="J37" s="38"/>
       <c r="K37" s="65"/>
-      <c r="L37" s="130" t="s">
+      <c r="L37" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="131"/>
-      <c r="N37" s="132"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="120"/>
       <c r="O37" s="73" t="s">
         <v>31</v>
       </c>
@@ -2646,7 +2642,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="38" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="55"/>
       <c r="B38" s="67"/>
       <c r="C38" s="67"/>
@@ -2666,31 +2662,31 @@
       <c r="Q38" s="63"/>
       <c r="R38" s="63"/>
     </row>
-    <row r="39" spans="1:19" s="72" customFormat="1" ht="15.75" thickBot="1">
+    <row r="39" spans="1:19" s="72" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="126" t="s">
+      <c r="B39" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="128"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="116"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="30"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="126" t="s">
+      <c r="L39" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="127"/>
-      <c r="N39" s="127"/>
-      <c r="O39" s="127"/>
-      <c r="P39" s="128"/>
+      <c r="M39" s="115"/>
+      <c r="N39" s="115"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="116"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="70"/>
       <c r="B40" s="78"/>
       <c r="C40" s="76" t="s">
@@ -2722,7 +2718,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="72" customFormat="1" ht="15.75">
+    <row r="41" spans="1:19" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="55" t="s">
         <v>32</v>
       </c>
@@ -2744,7 +2740,7 @@
       <c r="Q41" s="63"/>
       <c r="R41" s="63"/>
     </row>
-    <row r="42" spans="1:19" s="72" customFormat="1" ht="15.75" customHeight="1">
+    <row r="42" spans="1:19" s="72" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="70"/>
       <c r="B42" s="78" t="s">
         <v>33</v>
@@ -2780,7 +2776,7 @@
       <c r="Q42" s="19"/>
       <c r="R42" s="19"/>
     </row>
-    <row r="43" spans="1:19" ht="15.75" thickBot="1">
+    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>1</v>
       </c>
@@ -2802,7 +2798,7 @@
       <c r="Q43" s="19"/>
       <c r="R43" s="19"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -2826,6 +2822,23 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="M22:R22"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="M26:R26"/>
@@ -2836,23 +2849,6 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L39:P39"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M15:O15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Nash_dom.xlsx
+++ b/app/Отчеты/Nash_dom.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypusreports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
   <si>
     <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
   </si>
@@ -319,6 +324,9 @@
 в ${Group.bank_name}
 БИК ${Group.bank_bik}        К/с ${Group.bank_correction}
 ИНН ${Group.group_inn}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплату произвести до ${lc.payDay}. </t>
   </si>
 </sst>
 </file>
@@ -996,7 +1004,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1240,6 +1248,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1276,42 +1321,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1708,10 +1720,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:R3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45:R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,16 +1761,16 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="126" t="s">
+      <c r="K2" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
     </row>
     <row r="3" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -1771,18 +1783,18 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="125" t="s">
+      <c r="K3" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125" t="s">
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -1797,14 +1809,14 @@
       <c r="J4" s="28"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="132" t="s">
+      <c r="M4" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
@@ -1825,8 +1837,8 @@
       <c r="N5" s="82"/>
       <c r="O5" s="83"/>
       <c r="P5" s="83"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
@@ -1841,16 +1853,16 @@
       <c r="J6" s="28"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="128" t="s">
+      <c r="M6" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="127" t="s">
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="127"/>
+      <c r="R6" s="118"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -2001,11 +2013,11 @@
       <c r="J13" s="28"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="133" t="s">
+      <c r="M13" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
       <c r="P13" s="85" t="s">
         <v>52</v>
       </c>
@@ -2049,11 +2061,11 @@
       <c r="J15" s="28"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="135" t="s">
+      <c r="M15" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
       <c r="P15" s="76" t="s">
         <v>34</v>
       </c>
@@ -2169,28 +2181,28 @@
         <v>8</v>
       </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
       <c r="I21" s="20"/>
       <c r="J21" s="28"/>
       <c r="K21" s="112" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="11"/>
-      <c r="M21" s="129" t="s">
+      <c r="M21" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="129"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="115"/>
+      <c r="R21" s="115"/>
     </row>
     <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -2205,14 +2217,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="112"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="129" t="s">
+      <c r="M22" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="129"/>
-      <c r="Q22" s="129"/>
-      <c r="R22" s="129"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="115"/>
     </row>
     <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -2225,22 +2237,22 @@
       <c r="F23" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="131" t="s">
+      <c r="G23" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="131"/>
+      <c r="H23" s="116"/>
       <c r="I23" s="37"/>
       <c r="J23" s="38"/>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
-      <c r="M23" s="132" t="s">
+      <c r="M23" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="132"/>
-      <c r="Q23" s="132"/>
-      <c r="R23" s="132"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="117"/>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
@@ -2262,8 +2274,8 @@
       <c r="N24" s="82"/>
       <c r="O24" s="83"/>
       <c r="P24" s="83"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -2280,38 +2292,38 @@
       <c r="J25" s="38"/>
       <c r="K25" s="42"/>
       <c r="L25" s="42"/>
-      <c r="M25" s="128" t="s">
+      <c r="M25" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="N25" s="128"/>
-      <c r="O25" s="128"/>
-      <c r="P25" s="128"/>
-      <c r="Q25" s="127" t="s">
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="R25" s="127"/>
+      <c r="R25" s="118"/>
     </row>
     <row r="26" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="117" t="s">
+      <c r="C26" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
       <c r="I26" s="43"/>
       <c r="J26" s="38"/>
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="117"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="129"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
@@ -2469,10 +2481,10 @@
     </row>
     <row r="33" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="50"/>
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="122"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="51" t="s">
         <v>16</v>
       </c>
@@ -2491,10 +2503,10 @@
       <c r="I33" s="53"/>
       <c r="J33" s="38"/>
       <c r="K33" s="50"/>
-      <c r="L33" s="121" t="s">
+      <c r="L33" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="122"/>
+      <c r="M33" s="134"/>
       <c r="N33" s="51" t="s">
         <v>16</v>
       </c>
@@ -2540,10 +2552,10 @@
       <c r="A35" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="123" t="s">
+      <c r="B35" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="124"/>
+      <c r="C35" s="136"/>
       <c r="D35" s="60" t="s">
         <v>25</v>
       </c>
@@ -2564,10 +2576,10 @@
       <c r="K35" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="123" t="s">
+      <c r="L35" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="124"/>
+      <c r="M35" s="136"/>
       <c r="N35" s="60" t="s">
         <v>25</v>
       </c>
@@ -2608,11 +2620,11 @@
     </row>
     <row r="37" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="65"/>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="120"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="132"/>
       <c r="E37" s="73" t="s">
         <v>31</v>
       </c>
@@ -2626,11 +2638,11 @@
       <c r="I37" s="63"/>
       <c r="J37" s="38"/>
       <c r="K37" s="65"/>
-      <c r="L37" s="118" t="s">
+      <c r="L37" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="119"/>
-      <c r="N37" s="120"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="132"/>
       <c r="O37" s="73" t="s">
         <v>31</v>
       </c>
@@ -2664,25 +2676,25 @@
     </row>
     <row r="39" spans="1:19" s="72" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="116"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="30"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="114" t="s">
+      <c r="L39" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="115"/>
-      <c r="N39" s="115"/>
-      <c r="O39" s="115"/>
-      <c r="P39" s="116"/>
+      <c r="M39" s="127"/>
+      <c r="N39" s="127"/>
+      <c r="O39" s="127"/>
+      <c r="P39" s="128"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
     </row>
@@ -2798,7 +2810,7 @@
       <c r="Q43" s="19"/>
       <c r="R43" s="19"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -2820,8 +2832,46 @@
       <c r="Q44" s="79"/>
       <c r="R44" s="79"/>
     </row>
+    <row r="45" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="137" t="s">
+        <v>64</v>
+      </c>
+      <c r="M45" s="137"/>
+      <c r="N45" s="137"/>
+      <c r="O45" s="137"/>
+      <c r="P45" s="137"/>
+      <c r="Q45" s="137"/>
+      <c r="R45" s="137"/>
+    </row>
+    <row r="46" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="137"/>
+      <c r="M46" s="137"/>
+      <c r="N46" s="137"/>
+      <c r="O46" s="137"/>
+      <c r="P46" s="137"/>
+      <c r="Q46" s="137"/>
+      <c r="R46" s="137"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="L45:R46"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="M22:R22"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="M21:R21"/>
     <mergeCell ref="G23:H23"/>
@@ -2832,27 +2882,10 @@
     <mergeCell ref="M23:R23"/>
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L39:P39"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="19" max="1048575" man="1"/>
   </colBreaks>

--- a/app/Отчеты/Nash_dom.xlsx
+++ b/app/Отчеты/Nash_dom.xlsx
@@ -336,7 +336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -509,6 +509,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1248,10 +1256,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1261,12 +1317,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1279,49 +1329,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1722,7 +1730,7 @@
   </sheetPr>
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
       <selection activeCell="L45" sqref="L45:R46"/>
     </sheetView>
   </sheetViews>
@@ -1761,16 +1769,16 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="125" t="s">
+      <c r="K2" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
     </row>
     <row r="3" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -1783,18 +1791,18 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="124" t="s">
+      <c r="K3" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124" t="s">
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -1809,14 +1817,14 @@
       <c r="J4" s="28"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="117" t="s">
+      <c r="M4" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
@@ -1837,8 +1845,8 @@
       <c r="N5" s="82"/>
       <c r="O5" s="83"/>
       <c r="P5" s="83"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
@@ -1853,16 +1861,16 @@
       <c r="J6" s="28"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="119" t="s">
+      <c r="M6" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="118" t="s">
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="118"/>
+      <c r="R6" s="127"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -2013,11 +2021,11 @@
       <c r="J13" s="28"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="120" t="s">
+      <c r="M13" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
       <c r="P13" s="85" t="s">
         <v>52</v>
       </c>
@@ -2061,11 +2069,11 @@
       <c r="J15" s="28"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="122" t="s">
+      <c r="M15" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
       <c r="P15" s="76" t="s">
         <v>34</v>
       </c>
@@ -2181,28 +2189,28 @@
         <v>8</v>
       </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="114" t="s">
+      <c r="C21" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
       <c r="I21" s="20"/>
       <c r="J21" s="28"/>
       <c r="K21" s="112" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="11"/>
-      <c r="M21" s="115" t="s">
+      <c r="M21" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="115"/>
-      <c r="R21" s="115"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="129"/>
     </row>
     <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -2217,14 +2225,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="112"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="115" t="s">
+      <c r="M22" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="N22" s="115"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="115"/>
-      <c r="R22" s="115"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="129"/>
+      <c r="R22" s="129"/>
     </row>
     <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -2237,22 +2245,22 @@
       <c r="F23" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="116" t="s">
+      <c r="G23" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="116"/>
+      <c r="H23" s="131"/>
       <c r="I23" s="37"/>
       <c r="J23" s="38"/>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
-      <c r="M23" s="117" t="s">
+      <c r="M23" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="117"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="132"/>
+      <c r="Q23" s="132"/>
+      <c r="R23" s="132"/>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
@@ -2274,8 +2282,8 @@
       <c r="N24" s="82"/>
       <c r="O24" s="83"/>
       <c r="P24" s="83"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
+      <c r="Q24" s="127"/>
+      <c r="R24" s="127"/>
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -2292,38 +2300,38 @@
       <c r="J25" s="38"/>
       <c r="K25" s="42"/>
       <c r="L25" s="42"/>
-      <c r="M25" s="119" t="s">
+      <c r="M25" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="118" t="s">
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="R25" s="118"/>
+      <c r="R25" s="127"/>
     </row>
     <row r="26" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="129" t="s">
+      <c r="C26" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
       <c r="I26" s="43"/>
       <c r="J26" s="38"/>
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="129"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="117"/>
+      <c r="R26" s="117"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
@@ -2481,10 +2489,10 @@
     </row>
     <row r="33" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="50"/>
-      <c r="B33" s="133" t="s">
+      <c r="B33" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="134"/>
+      <c r="C33" s="122"/>
       <c r="D33" s="51" t="s">
         <v>16</v>
       </c>
@@ -2503,10 +2511,10 @@
       <c r="I33" s="53"/>
       <c r="J33" s="38"/>
       <c r="K33" s="50"/>
-      <c r="L33" s="133" t="s">
+      <c r="L33" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="134"/>
+      <c r="M33" s="122"/>
       <c r="N33" s="51" t="s">
         <v>16</v>
       </c>
@@ -2552,10 +2560,10 @@
       <c r="A35" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="135" t="s">
+      <c r="B35" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="136"/>
+      <c r="C35" s="124"/>
       <c r="D35" s="60" t="s">
         <v>25</v>
       </c>
@@ -2576,10 +2584,10 @@
       <c r="K35" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="135" t="s">
+      <c r="L35" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="136"/>
+      <c r="M35" s="124"/>
       <c r="N35" s="60" t="s">
         <v>25</v>
       </c>
@@ -2620,11 +2628,11 @@
     </row>
     <row r="37" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="65"/>
-      <c r="B37" s="130" t="s">
+      <c r="B37" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="131"/>
-      <c r="D37" s="132"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="120"/>
       <c r="E37" s="73" t="s">
         <v>31</v>
       </c>
@@ -2638,11 +2646,11 @@
       <c r="I37" s="63"/>
       <c r="J37" s="38"/>
       <c r="K37" s="65"/>
-      <c r="L37" s="130" t="s">
+      <c r="L37" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="131"/>
-      <c r="N37" s="132"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="120"/>
       <c r="O37" s="73" t="s">
         <v>31</v>
       </c>
@@ -2676,25 +2684,25 @@
     </row>
     <row r="39" spans="1:19" s="72" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="126" t="s">
+      <c r="B39" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="128"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="116"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="30"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="126" t="s">
+      <c r="L39" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="127"/>
-      <c r="N39" s="127"/>
-      <c r="O39" s="127"/>
-      <c r="P39" s="128"/>
+      <c r="M39" s="115"/>
+      <c r="N39" s="115"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="116"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
     </row>
@@ -2854,6 +2862,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="M22:R22"/>
     <mergeCell ref="L45:R46"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="C26:H26"/>
@@ -2865,23 +2890,6 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L39:P39"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M15:O15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Nash_dom.xlsx
+++ b/app/Отчеты/Nash_dom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypusreports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevrat\.platypusreports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
   <si>
     <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
   </si>
@@ -328,11 +328,14 @@
   <si>
     <t xml:space="preserve">Оплату произвести до ${lc.payDay}. </t>
   </si>
+  <si>
+    <t>Л/с: ${lc.lc_num}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
@@ -409,11 +412,6 @@
       <sz val="12"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <name val="Code 128"/>
-      <charset val="2"/>
     </font>
     <font>
       <b/>
@@ -517,6 +515,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1012,7 +1016,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1022,19 +1026,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1075,41 +1066,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1120,14 +1108,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1138,14 +1126,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1157,14 +1145,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1180,16 +1168,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1212,7 +1200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1250,34 +1238,79 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1291,47 +1324,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1730,8 +1722,8 @@
   </sheetPr>
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45:R46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,7 +1732,7 @@
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="8" width="11.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="2" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="26" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
@@ -1756,7 +1748,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="28"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
@@ -1768,41 +1760,41 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="126" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
     </row>
     <row r="3" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="90"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="125" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125" t="s">
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -1814,17 +1806,17 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" s="28"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="132" t="s">
+      <c r="M4" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
@@ -1836,17 +1828,19 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" s="28"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="83" t="s">
+      <c r="M5" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="82"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="113"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
@@ -1858,19 +1852,19 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6" s="28"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="128" t="s">
+      <c r="M6" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="127" t="s">
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="127"/>
+      <c r="R6" s="113"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -1882,15 +1876,15 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="28"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="9"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1902,17 +1896,17 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="28"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="33" t="s">
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="28" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1926,41 +1920,41 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="28"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="34" t="s">
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="6"/>
       <c r="D10"/>
       <c r="E10" s="2"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="28"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="34" t="s">
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="29" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1971,20 +1965,20 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="6"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="28"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="110" t="s">
+      <c r="M11" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="111" t="s">
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="106" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1995,10 +1989,10 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="6"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="28"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -2006,7 +2000,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="21"/>
+      <c r="R12" s="17"/>
     </row>
     <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -2015,27 +2009,27 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="6"/>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13" s="28"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="133" t="s">
+      <c r="M13" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="85" t="s">
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="Q13" s="86" t="s">
+      <c r="Q13" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="R13" s="84"/>
+      <c r="R13" s="79"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="50" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="2"/>
@@ -2043,18 +2037,18 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="6"/>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14" s="28"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="21"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="17"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -2063,25 +2057,25 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="6"/>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15" s="28"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="135" t="s">
+      <c r="M15" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="76" t="s">
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="84"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="79"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="2"/>
@@ -2089,38 +2083,38 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="6"/>
       <c r="H16"/>
       <c r="I16"/>
-      <c r="J16" s="28"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="21"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="6"/>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17" s="28"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="21"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="17"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2128,11 +2122,11 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="10"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="6"/>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" s="28"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
         <v>55</v>
@@ -2142,392 +2136,396 @@
         <v>54</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="21"/>
-    </row>
-    <row r="19" spans="1:18" s="27" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="26"/>
-    </row>
-    <row r="20" spans="1:18" s="93" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="17"/>
+    </row>
+    <row r="19" spans="1:18" s="23" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="22"/>
+    </row>
+    <row r="20" spans="1:18" s="88" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="21"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="17"/>
     </row>
     <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="130" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="112" t="s">
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="129" t="s">
+      <c r="L21" s="7"/>
+      <c r="M21" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="129"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
     </row>
     <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="129" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="129"/>
-      <c r="Q22" s="129"/>
-      <c r="R22" s="129"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
     </row>
     <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="35" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36" t="s">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="131" t="s">
+      <c r="G23" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="131"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="132" t="s">
+      <c r="H23" s="111"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="132"/>
-      <c r="Q23" s="132"/>
-      <c r="R23" s="132"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="40" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="83" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="N24" s="82"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" s="113"/>
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="113"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="128" t="s">
+      <c r="I25" s="36"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="N25" s="128"/>
-      <c r="O25" s="128"/>
-      <c r="P25" s="128"/>
-      <c r="Q25" s="127" t="s">
+      <c r="N25" s="114"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="R25" s="127"/>
+      <c r="R25" s="113"/>
     </row>
     <row r="26" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="117" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="117"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="126"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="42" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="45" t="s">
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42" t="s">
+      <c r="I27" s="41"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="45" t="s">
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="40" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="42" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="47" t="s">
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42" t="s">
+      <c r="I28" s="41"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="47" t="s">
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="42" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="42" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="47" t="s">
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="46"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42" t="s">
+      <c r="I29" s="41"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="47" t="s">
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="42" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="42" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="48" t="s">
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="49"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42" t="s">
+      <c r="I30" s="44"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="48" t="s">
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="43" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="42"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="37"/>
       <c r="L31" s="4" t="s">
         <v>61</v>
       </c>
       <c r="N31" s="4"/>
-      <c r="O31" s="12" t="s">
+      <c r="O31" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="49"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="44"/>
     </row>
     <row r="32" spans="1:18" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
     </row>
     <row r="33" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
-      <c r="B33" s="121" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="122"/>
-      <c r="D33" s="51" t="s">
+      <c r="C33" s="131"/>
+      <c r="D33" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="51" t="s">
+      <c r="F33" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="51" t="s">
+      <c r="G33" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="52" t="s">
+      <c r="H33" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="53"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="121" t="s">
+      <c r="I33" s="48"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="122"/>
-      <c r="N33" s="51" t="s">
+      <c r="M33" s="131"/>
+      <c r="N33" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="51" t="s">
+      <c r="O33" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="P33" s="51" t="s">
+      <c r="P33" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="Q33" s="51" t="s">
+      <c r="Q33" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="R33" s="52" t="s">
+      <c r="R33" s="47" t="s">
         <v>20</v>
       </c>
       <c r="S33" t="s">
@@ -2535,350 +2533,334 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="58"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="53"/>
     </row>
     <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="123" t="s">
+      <c r="B35" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="124"/>
-      <c r="D35" s="60" t="s">
+      <c r="C35" s="133"/>
+      <c r="D35" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="61" t="s">
+      <c r="F35" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="61" t="s">
+      <c r="G35" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="62" t="s">
+      <c r="H35" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="63"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="59" t="s">
+      <c r="I35" s="58"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="123" t="s">
+      <c r="L35" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="124"/>
-      <c r="N35" s="60" t="s">
+      <c r="M35" s="133"/>
+      <c r="N35" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="60" t="s">
+      <c r="O35" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="P35" s="61" t="s">
+      <c r="P35" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="Q35" s="61" t="s">
+      <c r="Q35" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="R35" s="62" t="s">
+      <c r="R35" s="57" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="58"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="53"/>
     </row>
     <row r="37" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="65"/>
-      <c r="B37" s="118" t="s">
+      <c r="A37" s="60"/>
+      <c r="B37" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="73" t="s">
+      <c r="C37" s="128"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="66"/>
-      <c r="G37" s="74" t="s">
+      <c r="F37" s="61"/>
+      <c r="G37" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="74" t="s">
+      <c r="H37" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="63"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="118" t="s">
+      <c r="I37" s="58"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="119"/>
-      <c r="N37" s="120"/>
-      <c r="O37" s="73" t="s">
+      <c r="M37" s="128"/>
+      <c r="N37" s="129"/>
+      <c r="O37" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="74" t="s">
+      <c r="P37" s="61"/>
+      <c r="Q37" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="R37" s="74" t="s">
+      <c r="R37" s="69" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="55"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="63"/>
-    </row>
-    <row r="39" spans="1:19" s="72" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="50"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+    </row>
+    <row r="39" spans="1:19" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="116"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="125"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="30"/>
+      <c r="J39" s="26"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="114" t="s">
+      <c r="L39" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="115"/>
-      <c r="N39" s="115"/>
-      <c r="O39" s="115"/>
-      <c r="P39" s="116"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
+      <c r="M39" s="124"/>
+      <c r="N39" s="124"/>
+      <c r="O39" s="124"/>
+      <c r="P39" s="125"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="76" t="s">
+      <c r="A40" s="65"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="76" t="s">
+      <c r="D40" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="77" t="s">
+      <c r="E40" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="96" t="s">
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="N40" s="96" t="s">
+      <c r="N40" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="O40" s="97" t="s">
+      <c r="O40" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="P40" s="98" t="s">
+      <c r="P40" s="93" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="55" t="s">
+    <row r="41" spans="1:19" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-    </row>
-    <row r="42" spans="1:19" s="72" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="70"/>
-      <c r="B42" s="78" t="s">
+      <c r="B41" s="63"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="58"/>
+    </row>
+    <row r="42" spans="1:19" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="65"/>
+      <c r="B42" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="76" t="s">
+      <c r="D42" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="77" t="s">
+      <c r="E42" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="108" t="s">
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="M42" s="76" t="s">
+      <c r="M42" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="N42" s="76" t="s">
+      <c r="N42" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="O42" s="107" t="s">
+      <c r="O42" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="P42" s="109"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
     </row>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="103"/>
-      <c r="M43" s="104"/>
-      <c r="N43" s="104"/>
-      <c r="O43" s="105"/>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99"/>
+      <c r="O43" s="100"/>
+      <c r="P43" s="101"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
     </row>
     <row r="44" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="79"/>
-      <c r="P44" s="79"/>
-      <c r="Q44" s="79"/>
-      <c r="R44" s="79"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="74"/>
     </row>
     <row r="45" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L45" s="137" t="s">
+      <c r="L45" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="M45" s="137"/>
-      <c r="N45" s="137"/>
-      <c r="O45" s="137"/>
-      <c r="P45" s="137"/>
-      <c r="Q45" s="137"/>
-      <c r="R45" s="137"/>
+      <c r="M45" s="122"/>
+      <c r="N45" s="122"/>
+      <c r="O45" s="122"/>
+      <c r="P45" s="122"/>
+      <c r="Q45" s="122"/>
+      <c r="R45" s="122"/>
     </row>
     <row r="46" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L46" s="137"/>
-      <c r="M46" s="137"/>
-      <c r="N46" s="137"/>
-      <c r="O46" s="137"/>
-      <c r="P46" s="137"/>
-      <c r="Q46" s="137"/>
-      <c r="R46" s="137"/>
+      <c r="L46" s="122"/>
+      <c r="M46" s="122"/>
+      <c r="N46" s="122"/>
+      <c r="O46" s="122"/>
+      <c r="P46" s="122"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="122"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="M22:R22"/>
+  <mergeCells count="30">
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="L45:R46"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="C26:H26"/>
@@ -2890,6 +2872,24 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L39:P39"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M15:O15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Nash_dom.xlsx
+++ b/app/Отчеты/Nash_dom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevrat\.platypusreports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypusreports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
   <si>
     <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
   </si>
@@ -331,15 +331,30 @@
   <si>
     <t>Л/с: ${lc.lc_num}</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Л/с: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>${lc.lc_num}</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -521,6 +536,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1244,10 +1266,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1257,12 +1335,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1274,56 +1346,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1722,8 +1744,8 @@
   </sheetPr>
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,16 +1783,16 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" s="24"/>
-      <c r="K2" s="120" t="s">
+      <c r="K2" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
     </row>
     <row r="3" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -1783,18 +1805,18 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" s="24"/>
-      <c r="K3" s="119" t="s">
+      <c r="K3" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119" t="s">
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -1809,14 +1831,14 @@
       <c r="J4" s="24"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="112" t="s">
+      <c r="M4" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
@@ -1837,10 +1859,10 @@
       <c r="N5" s="77"/>
       <c r="O5" s="78"/>
       <c r="P5" s="78"/>
-      <c r="Q5" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="R5" s="113"/>
+      <c r="Q5" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="109"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
@@ -1855,16 +1877,16 @@
       <c r="J6" s="24"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="114" t="s">
+      <c r="M6" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="113" t="s">
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="113"/>
+      <c r="R6" s="109"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -1879,12 +1901,12 @@
       <c r="J7" s="24"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2015,11 +2037,11 @@
       <c r="J13" s="24"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="115" t="s">
+      <c r="M13" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
       <c r="P13" s="80" t="s">
         <v>52</v>
       </c>
@@ -2063,11 +2085,11 @@
       <c r="J15" s="24"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="117" t="s">
+      <c r="M15" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
+      <c r="N15" s="133"/>
+      <c r="O15" s="133"/>
       <c r="P15" s="71" t="s">
         <v>34</v>
       </c>
@@ -2183,28 +2205,28 @@
         <v>8</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
       <c r="I21" s="16"/>
       <c r="J21" s="24"/>
       <c r="K21" s="107" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="110" t="s">
+      <c r="M21" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="110"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
     </row>
     <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -2219,14 +2241,14 @@
       <c r="J22" s="24"/>
       <c r="K22" s="107"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="110" t="s">
+      <c r="M22" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
     </row>
     <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -2239,22 +2261,22 @@
       <c r="F23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="111" t="s">
+      <c r="G23" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="111"/>
+      <c r="H23" s="128"/>
       <c r="I23" s="32"/>
       <c r="J23" s="33"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
-      <c r="M23" s="112" t="s">
+      <c r="M23" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="129"/>
+      <c r="R23" s="129"/>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -2276,19 +2298,19 @@
       <c r="N24" s="77"/>
       <c r="O24" s="78"/>
       <c r="P24" s="78"/>
-      <c r="Q24" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="R24" s="113"/>
+      <c r="Q24" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24" s="109"/>
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="35"/>
-      <c r="D25" s="113" t="s">
+      <c r="D25" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="113"/>
+      <c r="E25" s="109"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
       <c r="H25" s="36" t="s">
@@ -2298,38 +2320,38 @@
       <c r="J25" s="33"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
-      <c r="M25" s="114" t="s">
+      <c r="M25" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="113" t="s">
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="124"/>
+      <c r="Q25" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="R25" s="113"/>
+      <c r="R25" s="109"/>
     </row>
     <row r="26" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="126" t="s">
+      <c r="C26" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
       <c r="I26" s="38"/>
       <c r="J26" s="33"/>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="114"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -2487,10 +2509,10 @@
     </row>
     <row r="33" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="131"/>
+      <c r="C33" s="119"/>
       <c r="D33" s="46" t="s">
         <v>16</v>
       </c>
@@ -2509,10 +2531,10 @@
       <c r="I33" s="48"/>
       <c r="J33" s="33"/>
       <c r="K33" s="45"/>
-      <c r="L33" s="130" t="s">
+      <c r="L33" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="131"/>
+      <c r="M33" s="119"/>
       <c r="N33" s="46" t="s">
         <v>16</v>
       </c>
@@ -2558,10 +2580,10 @@
       <c r="A35" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="132" t="s">
+      <c r="B35" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="133"/>
+      <c r="C35" s="121"/>
       <c r="D35" s="55" t="s">
         <v>25</v>
       </c>
@@ -2582,10 +2604,10 @@
       <c r="K35" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="132" t="s">
+      <c r="L35" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="133"/>
+      <c r="M35" s="121"/>
       <c r="N35" s="55" t="s">
         <v>25</v>
       </c>
@@ -2626,11 +2648,11 @@
     </row>
     <row r="37" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="60"/>
-      <c r="B37" s="127" t="s">
+      <c r="B37" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="128"/>
-      <c r="D37" s="129"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="117"/>
       <c r="E37" s="68" t="s">
         <v>31</v>
       </c>
@@ -2644,11 +2666,11 @@
       <c r="I37" s="58"/>
       <c r="J37" s="33"/>
       <c r="K37" s="60"/>
-      <c r="L37" s="127" t="s">
+      <c r="L37" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="128"/>
-      <c r="N37" s="129"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="117"/>
       <c r="O37" s="68" t="s">
         <v>31</v>
       </c>
@@ -2682,25 +2704,25 @@
     </row>
     <row r="39" spans="1:19" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="123" t="s">
+      <c r="B39" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="125"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="113"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="26"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="123" t="s">
+      <c r="L39" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="124"/>
-      <c r="N39" s="124"/>
-      <c r="O39" s="124"/>
-      <c r="P39" s="125"/>
+      <c r="M39" s="112"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="113"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
     </row>
@@ -2839,27 +2861,45 @@
       <c r="R44" s="74"/>
     </row>
     <row r="45" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L45" s="122" t="s">
+      <c r="L45" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="M45" s="122"/>
-      <c r="N45" s="122"/>
-      <c r="O45" s="122"/>
-      <c r="P45" s="122"/>
-      <c r="Q45" s="122"/>
-      <c r="R45" s="122"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="110"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
+      <c r="R45" s="110"/>
     </row>
     <row r="46" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L46" s="122"/>
-      <c r="M46" s="122"/>
-      <c r="N46" s="122"/>
-      <c r="O46" s="122"/>
-      <c r="P46" s="122"/>
-      <c r="Q46" s="122"/>
-      <c r="R46" s="122"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="110"/>
+      <c r="N46" s="110"/>
+      <c r="O46" s="110"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="M7:R7"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="L45:R46"/>
     <mergeCell ref="B39:E39"/>
@@ -2872,24 +2912,6 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L39:P39"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M15:O15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Nash_dom.xlsx
+++ b/app/Отчеты/Nash_dom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
   <si>
     <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
   </si>
@@ -330,21 +330,6 @@
   </si>
   <si>
     <t>Л/с: ${lc.lc_num}</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Л/с: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>${lc.lc_num}</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -1038,7 +1023,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1266,8 +1251,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1309,43 +1332,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1745,7 +1733,7 @@
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25:P25"/>
+      <selection activeCell="D25" sqref="D25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,16 +1771,16 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" s="24"/>
-      <c r="K2" s="123" t="s">
+      <c r="K2" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
     </row>
     <row r="3" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -1805,18 +1793,18 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" s="24"/>
-      <c r="K3" s="122" t="s">
+      <c r="K3" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122" t="s">
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -1831,14 +1819,14 @@
       <c r="J4" s="24"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="129" t="s">
+      <c r="M4" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
@@ -1859,10 +1847,10 @@
       <c r="N5" s="77"/>
       <c r="O5" s="78"/>
       <c r="P5" s="78"/>
-      <c r="Q5" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" s="109"/>
+      <c r="Q5" s="134" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="134"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
@@ -1877,16 +1865,16 @@
       <c r="J6" s="24"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="124" t="s">
+      <c r="M6" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="109" t="s">
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="109"/>
+      <c r="R6" s="113"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -1901,12 +1889,12 @@
       <c r="J7" s="24"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2037,11 +2025,11 @@
       <c r="J13" s="24"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="130" t="s">
+      <c r="M13" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
       <c r="P13" s="80" t="s">
         <v>52</v>
       </c>
@@ -2085,11 +2073,11 @@
       <c r="J15" s="24"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="132" t="s">
+      <c r="M15" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="133"/>
-      <c r="O15" s="133"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
       <c r="P15" s="71" t="s">
         <v>34</v>
       </c>
@@ -2205,28 +2193,28 @@
         <v>8</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
       <c r="I21" s="16"/>
       <c r="J21" s="24"/>
       <c r="K21" s="107" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="125" t="s">
+      <c r="M21" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="125"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
     </row>
     <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -2241,14 +2229,14 @@
       <c r="J22" s="24"/>
       <c r="K22" s="107"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="125" t="s">
+      <c r="M22" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="125"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
     </row>
     <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -2261,22 +2249,22 @@
       <c r="F23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="128" t="s">
+      <c r="G23" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="128"/>
+      <c r="H23" s="111"/>
       <c r="I23" s="32"/>
       <c r="J23" s="33"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
-      <c r="M23" s="129" t="s">
+      <c r="M23" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="129"/>
-      <c r="R23" s="129"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -2298,19 +2286,19 @@
       <c r="N24" s="77"/>
       <c r="O24" s="78"/>
       <c r="P24" s="78"/>
-      <c r="Q24" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="R24" s="109"/>
+      <c r="Q24" s="134" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" s="134"/>
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="35"/>
-      <c r="D25" s="109" t="s">
+      <c r="D25" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="109"/>
+      <c r="E25" s="134"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
       <c r="H25" s="36" t="s">
@@ -2320,38 +2308,38 @@
       <c r="J25" s="33"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
-      <c r="M25" s="124" t="s">
+      <c r="M25" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="109" t="s">
+      <c r="N25" s="114"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="R25" s="109"/>
+      <c r="R25" s="113"/>
     </row>
     <row r="26" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="114" t="s">
+      <c r="C26" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
       <c r="I26" s="38"/>
       <c r="J26" s="33"/>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="114"/>
-      <c r="R26" s="114"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="126"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -2509,10 +2497,10 @@
     </row>
     <row r="33" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="119"/>
+      <c r="C33" s="131"/>
       <c r="D33" s="46" t="s">
         <v>16</v>
       </c>
@@ -2531,10 +2519,10 @@
       <c r="I33" s="48"/>
       <c r="J33" s="33"/>
       <c r="K33" s="45"/>
-      <c r="L33" s="118" t="s">
+      <c r="L33" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="119"/>
+      <c r="M33" s="131"/>
       <c r="N33" s="46" t="s">
         <v>16</v>
       </c>
@@ -2580,10 +2568,10 @@
       <c r="A35" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="120" t="s">
+      <c r="B35" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="121"/>
+      <c r="C35" s="133"/>
       <c r="D35" s="55" t="s">
         <v>25</v>
       </c>
@@ -2604,10 +2592,10 @@
       <c r="K35" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="120" t="s">
+      <c r="L35" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="121"/>
+      <c r="M35" s="133"/>
       <c r="N35" s="55" t="s">
         <v>25</v>
       </c>
@@ -2648,11 +2636,11 @@
     </row>
     <row r="37" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="60"/>
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="117"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="129"/>
       <c r="E37" s="68" t="s">
         <v>31</v>
       </c>
@@ -2666,11 +2654,11 @@
       <c r="I37" s="58"/>
       <c r="J37" s="33"/>
       <c r="K37" s="60"/>
-      <c r="L37" s="115" t="s">
+      <c r="L37" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="116"/>
-      <c r="N37" s="117"/>
+      <c r="M37" s="128"/>
+      <c r="N37" s="129"/>
       <c r="O37" s="68" t="s">
         <v>31</v>
       </c>
@@ -2704,25 +2692,25 @@
     </row>
     <row r="39" spans="1:19" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="111" t="s">
+      <c r="B39" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="113"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="125"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="26"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="111" t="s">
+      <c r="L39" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="112"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="112"/>
-      <c r="P39" s="113"/>
+      <c r="M39" s="124"/>
+      <c r="N39" s="124"/>
+      <c r="O39" s="124"/>
+      <c r="P39" s="125"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
     </row>
@@ -2861,45 +2849,27 @@
       <c r="R44" s="74"/>
     </row>
     <row r="45" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L45" s="110" t="s">
+      <c r="L45" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="M45" s="110"/>
-      <c r="N45" s="110"/>
-      <c r="O45" s="110"/>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="110"/>
-      <c r="R45" s="110"/>
+      <c r="M45" s="122"/>
+      <c r="N45" s="122"/>
+      <c r="O45" s="122"/>
+      <c r="P45" s="122"/>
+      <c r="Q45" s="122"/>
+      <c r="R45" s="122"/>
     </row>
     <row r="46" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L46" s="110"/>
-      <c r="M46" s="110"/>
-      <c r="N46" s="110"/>
-      <c r="O46" s="110"/>
-      <c r="P46" s="110"/>
-      <c r="Q46" s="110"/>
-      <c r="R46" s="110"/>
+      <c r="L46" s="122"/>
+      <c r="M46" s="122"/>
+      <c r="N46" s="122"/>
+      <c r="O46" s="122"/>
+      <c r="P46" s="122"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="M7:R7"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="L45:R46"/>
     <mergeCell ref="B39:E39"/>
@@ -2912,6 +2882,24 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L39:P39"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M15:O15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Nash_dom.xlsx
+++ b/app/Отчеты/Nash_dom.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypusreports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -81,9 +76,6 @@
   </si>
   <si>
     <t>Льгота</t>
-  </si>
-  <si>
-    <t>Перерасчет</t>
   </si>
   <si>
     <t>Начислено</t>
@@ -330,6 +322,9 @@
   </si>
   <si>
     <t>Л/с: ${lc.lc_num}</t>
+  </si>
+  <si>
+    <t>Корректировка</t>
   </si>
 </sst>
 </file>
@@ -1251,10 +1246,69 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1264,12 +1318,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1281,59 +1329,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1732,8 +1727,8 @@
   </sheetPr>
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:E25"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,7 +1743,7 @@
     <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" style="1" customWidth="1"/>
     <col min="15" max="16" width="11.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="1" customWidth="1"/>
     <col min="18" max="18" width="13.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="4.28515625" style="1" customWidth="1"/>
     <col min="20" max="16384" width="10.85546875" style="1"/>
@@ -1771,16 +1766,16 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" s="24"/>
-      <c r="K2" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
+      <c r="K2" s="123" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
     </row>
     <row r="3" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -1793,18 +1788,18 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" s="24"/>
-      <c r="K3" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
+      <c r="K3" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -1819,14 +1814,14 @@
       <c r="J4" s="24"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="112" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
+      <c r="M4" s="130" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
@@ -1842,15 +1837,15 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5" s="77"/>
       <c r="O5" s="78"/>
       <c r="P5" s="78"/>
-      <c r="Q5" s="134" t="s">
-        <v>65</v>
-      </c>
-      <c r="R5" s="134"/>
+      <c r="Q5" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="109"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
@@ -1865,16 +1860,16 @@
       <c r="J6" s="24"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="113" t="s">
-        <v>49</v>
-      </c>
-      <c r="R6" s="113"/>
+      <c r="M6" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="125"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -1889,12 +1884,12 @@
       <c r="J7" s="24"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1941,7 +1936,7 @@
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -1958,7 +1953,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
@@ -1982,14 +1977,14 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N11" s="105"/>
       <c r="O11" s="105"/>
       <c r="P11" s="105"/>
       <c r="Q11" s="105"/>
       <c r="R11" s="106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2025,22 +2020,22 @@
       <c r="J13" s="24"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="115" t="s">
+      <c r="M13" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="80" t="s">
-        <v>52</v>
-      </c>
       <c r="Q13" s="81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R13" s="79"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2073,13 +2068,13 @@
       <c r="J15" s="24"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="117" t="s">
+      <c r="M15" s="133" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="71" t="s">
         <v>33</v>
-      </c>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="71" t="s">
-        <v>34</v>
       </c>
       <c r="Q15" s="97"/>
       <c r="R15" s="79"/>
@@ -2139,11 +2134,11 @@
       <c r="J18" s="24"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="17"/>
@@ -2193,28 +2188,28 @@
         <v>8</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
+      <c r="C21" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
       <c r="I21" s="16"/>
       <c r="J21" s="24"/>
       <c r="K21" s="107" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="110"/>
+      <c r="M21" s="126" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="126"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="126"/>
     </row>
     <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -2229,14 +2224,14 @@
       <c r="J22" s="24"/>
       <c r="K22" s="107"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
+      <c r="M22" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="126"/>
     </row>
     <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -2249,22 +2244,22 @@
       <c r="F23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="111" t="s">
+      <c r="G23" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="111"/>
+      <c r="H23" s="129"/>
       <c r="I23" s="32"/>
       <c r="J23" s="33"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
-      <c r="M23" s="112" t="s">
-        <v>57</v>
-      </c>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
+      <c r="M23" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="130"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="130"/>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -2281,24 +2276,24 @@
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
       <c r="M24" s="78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N24" s="77"/>
       <c r="O24" s="78"/>
       <c r="P24" s="78"/>
-      <c r="Q24" s="134" t="s">
-        <v>65</v>
-      </c>
-      <c r="R24" s="134"/>
+      <c r="Q24" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="R24" s="109"/>
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="35"/>
-      <c r="D25" s="134" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="134"/>
+      <c r="D25" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="109"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
       <c r="H25" s="36" t="s">
@@ -2308,38 +2303,38 @@
       <c r="J25" s="33"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
-      <c r="M25" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="113" t="s">
-        <v>56</v>
-      </c>
-      <c r="R25" s="113"/>
+      <c r="M25" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="124"/>
+      <c r="Q25" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="R25" s="125"/>
     </row>
     <row r="26" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="126" t="s">
+      <c r="C26" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
       <c r="I26" s="38"/>
       <c r="J26" s="33"/>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="114"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -2380,7 +2375,7 @@
       <c r="F28" s="37"/>
       <c r="G28" s="39"/>
       <c r="H28" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I28" s="41"/>
       <c r="J28" s="33"/>
@@ -2394,7 +2389,7 @@
       <c r="P28" s="37"/>
       <c r="Q28" s="39"/>
       <c r="R28" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -2415,7 +2410,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
       <c r="M29" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N29" s="37"/>
       <c r="O29" s="37"/>
@@ -2429,28 +2424,28 @@
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="37"/>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
       <c r="G30" s="39"/>
       <c r="H30" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I30" s="44"/>
       <c r="J30" s="33"/>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
       <c r="M30" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="39"/>
       <c r="R30" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2466,11 +2461,11 @@
       <c r="J31" s="33"/>
       <c r="K31" s="37"/>
       <c r="L31" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q31" s="39"/>
       <c r="R31" s="44"/>
@@ -2497,10 +2492,10 @@
     </row>
     <row r="33" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="131"/>
+      <c r="C33" s="119"/>
       <c r="D33" s="46" t="s">
         <v>16</v>
       </c>
@@ -2511,18 +2506,18 @@
         <v>18</v>
       </c>
       <c r="G33" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="47" t="s">
         <v>19</v>
-      </c>
-      <c r="H33" s="47" t="s">
-        <v>20</v>
       </c>
       <c r="I33" s="48"/>
       <c r="J33" s="33"/>
       <c r="K33" s="45"/>
-      <c r="L33" s="130" t="s">
+      <c r="L33" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="131"/>
+      <c r="M33" s="119"/>
       <c r="N33" s="46" t="s">
         <v>16</v>
       </c>
@@ -2533,18 +2528,18 @@
         <v>18</v>
       </c>
       <c r="Q33" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="R33" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="R33" s="47" t="s">
+      <c r="S33" t="s">
         <v>20</v>
-      </c>
-      <c r="S33" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="51"/>
@@ -2566,50 +2561,50 @@
     </row>
     <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="132" t="s">
+      <c r="C35" s="121"/>
+      <c r="D35" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="133"/>
-      <c r="D35" s="55" t="s">
+      <c r="E35" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="F35" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="56" t="s">
+      <c r="G35" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="56" t="s">
+      <c r="H35" s="57" t="s">
         <v>28</v>
-      </c>
-      <c r="H35" s="57" t="s">
-        <v>29</v>
       </c>
       <c r="I35" s="58"/>
       <c r="J35" s="33"/>
       <c r="K35" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="132" t="s">
+      <c r="M35" s="121"/>
+      <c r="N35" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="133"/>
-      <c r="N35" s="55" t="s">
+      <c r="O35" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="55" t="s">
+      <c r="P35" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="P35" s="56" t="s">
+      <c r="Q35" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="Q35" s="56" t="s">
+      <c r="R35" s="57" t="s">
         <v>28</v>
-      </c>
-      <c r="R35" s="57" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2636,38 +2631,38 @@
     </row>
     <row r="37" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="60"/>
-      <c r="B37" s="127" t="s">
+      <c r="B37" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="116"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="68" t="s">
         <v>30</v>
-      </c>
-      <c r="C37" s="128"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="68" t="s">
-        <v>31</v>
       </c>
       <c r="F37" s="61"/>
       <c r="G37" s="69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I37" s="58"/>
       <c r="J37" s="33"/>
       <c r="K37" s="60"/>
-      <c r="L37" s="127" t="s">
+      <c r="L37" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="116"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="68" t="s">
         <v>30</v>
-      </c>
-      <c r="M37" s="128"/>
-      <c r="N37" s="129"/>
-      <c r="O37" s="68" t="s">
-        <v>31</v>
       </c>
       <c r="P37" s="61"/>
       <c r="Q37" s="69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R37" s="69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2692,25 +2687,25 @@
     </row>
     <row r="39" spans="1:19" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="123" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="125"/>
+      <c r="B39" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="113"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="26"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="123" t="s">
-        <v>43</v>
-      </c>
-      <c r="M39" s="124"/>
-      <c r="N39" s="124"/>
-      <c r="O39" s="124"/>
-      <c r="P39" s="125"/>
+      <c r="L39" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="M39" s="112"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="113"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
     </row>
@@ -2718,13 +2713,13 @@
       <c r="A40" s="65"/>
       <c r="B40" s="73"/>
       <c r="C40" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="71" t="s">
+      <c r="E40" s="72" t="s">
         <v>45</v>
-      </c>
-      <c r="E40" s="72" t="s">
-        <v>46</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -2734,21 +2729,21 @@
       <c r="K40" s="65"/>
       <c r="L40" s="90"/>
       <c r="M40" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="N40" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="N40" s="91" t="s">
+      <c r="O40" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="O40" s="92" t="s">
-        <v>46</v>
-      </c>
       <c r="P40" s="93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:19" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="63"/>
       <c r="C41" s="64"/>
@@ -2771,16 +2766,16 @@
     <row r="42" spans="1:19" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="65"/>
       <c r="B42" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="D42" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="71" t="s">
+      <c r="E42" s="72" t="s">
         <v>35</v>
-      </c>
-      <c r="E42" s="72" t="s">
-        <v>36</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -2789,16 +2784,16 @@
       <c r="J42" s="66"/>
       <c r="K42" s="65"/>
       <c r="L42" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="M42" s="71" t="s">
+      <c r="N42" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="N42" s="71" t="s">
+      <c r="O42" s="102" t="s">
         <v>35</v>
-      </c>
-      <c r="O42" s="102" t="s">
-        <v>36</v>
       </c>
       <c r="P42" s="104"/>
       <c r="Q42" s="15"/>
@@ -2849,27 +2844,45 @@
       <c r="R44" s="74"/>
     </row>
     <row r="45" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L45" s="122" t="s">
-        <v>64</v>
-      </c>
-      <c r="M45" s="122"/>
-      <c r="N45" s="122"/>
-      <c r="O45" s="122"/>
-      <c r="P45" s="122"/>
-      <c r="Q45" s="122"/>
-      <c r="R45" s="122"/>
+      <c r="L45" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="M45" s="110"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="110"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
+      <c r="R45" s="110"/>
     </row>
     <row r="46" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L46" s="122"/>
-      <c r="M46" s="122"/>
-      <c r="N46" s="122"/>
-      <c r="O46" s="122"/>
-      <c r="P46" s="122"/>
-      <c r="Q46" s="122"/>
-      <c r="R46" s="122"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="110"/>
+      <c r="N46" s="110"/>
+      <c r="O46" s="110"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="M7:R7"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="L45:R46"/>
     <mergeCell ref="B39:E39"/>
@@ -2882,24 +2895,6 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L39:P39"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M15:O15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Nash_dom.xlsx
+++ b/app/Отчеты/Nash_dom.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
   <si>
     <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
   </si>
@@ -325,6 +330,12 @@
   </si>
   <si>
     <t>Корректировка</t>
+  </si>
+  <si>
+    <t>${qrCode.pstring}</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1246,8 +1257,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1288,47 +1340,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1725,10 +1736,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,38 +1760,24 @@
     <col min="20" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
       <c r="J2" s="24"/>
-      <c r="K2" s="123" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-    </row>
-    <row r="3" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="85"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3"/>
@@ -1788,40 +1785,40 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" s="24"/>
-      <c r="K3" s="122" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-    </row>
-    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+    </row>
+    <row r="4" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" s="3"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
+      <c r="K4" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
@@ -1836,16 +1833,14 @@
       <c r="J5" s="24"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="77"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="R5" s="109"/>
+      <c r="M5" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
@@ -1860,38 +1855,42 @@
       <c r="J6" s="24"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="124" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="125" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" s="125"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="M6" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="77"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="113" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="113"/>
+    </row>
+    <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7"/>
       <c r="B7" s="3"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" s="24"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M7" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="115"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8"/>
@@ -1902,22 +1901,18 @@
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="28" t="s">
-        <v>4</v>
-      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9"/>
+      <c r="B9" s="3"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9" s="2"/>
@@ -1929,23 +1924,23 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
-      <c r="R9" s="29" t="s">
-        <v>36</v>
+      <c r="R9" s="28" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10"/>
-      <c r="C10" s="6"/>
+      <c r="C10"/>
       <c r="D10"/>
       <c r="E10" s="2"/>
-      <c r="F10"/>
+      <c r="F10" s="3"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -1953,41 +1948,41 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="27" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11"/>
+      <c r="C11" s="6"/>
+      <c r="D11"/>
       <c r="E11" s="2"/>
       <c r="F11"/>
-      <c r="G11" s="6"/>
+      <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" s="24"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="106" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2000,14 +1995,18 @@
       <c r="J12" s="24"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="17"/>
-    </row>
-    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="106" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2020,23 +2019,15 @@
       <c r="J13" s="24"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="R13" s="79"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
-        <v>31</v>
-      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="17"/>
+    </row>
+    <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2048,15 +2039,23 @@
       <c r="J14" s="24"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="17"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="M14" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" s="79"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2068,21 +2067,15 @@
       <c r="J15" s="24"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="133" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="79"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="M15" s="82"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="17"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2094,15 +2087,21 @@
       <c r="J16" s="24"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="17"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="M16" s="118" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="79"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2114,715 +2113,713 @@
       <c r="J17" s="24"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="96"/>
       <c r="R17" s="17"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="8"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18"/>
       <c r="G18" s="6"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18" s="24"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="4"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="17"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4" t="s">
+      <c r="N19" s="4"/>
+      <c r="O19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="17"/>
-    </row>
-    <row r="19" spans="1:18" s="23" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="22"/>
-    </row>
-    <row r="20" spans="1:18" s="88" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="17"/>
-    </row>
-    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="Q19" s="4"/>
+      <c r="R19" s="17"/>
+    </row>
+    <row r="20" spans="1:18" s="23" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="22"/>
+    </row>
+    <row r="21" spans="1:18" s="88" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="17"/>
+    </row>
+    <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="128" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="107" t="s">
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="126" t="s">
+      <c r="L22" s="7"/>
+      <c r="M22" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="126"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="126"/>
-    </row>
-    <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="126" t="s">
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
+    </row>
+    <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="126"/>
-    </row>
-    <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="30" t="s">
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+    </row>
+    <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31" t="s">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="129" t="s">
+      <c r="G24" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="129"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="130" t="s">
+      <c r="H24" s="111"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="130"/>
-    </row>
-    <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="N24" s="77"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="R24" s="109"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="109"/>
+      <c r="C25" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="36" t="s">
-        <v>12</v>
-      </c>
       <c r="I25" s="36"/>
       <c r="J25" s="33"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
-      <c r="M25" s="124" t="s">
-        <v>52</v>
-      </c>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="125" t="s">
-        <v>55</v>
-      </c>
-      <c r="R25" s="125"/>
-    </row>
-    <row r="26" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M25" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="N25" s="77"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="113" t="s">
+        <v>64</v>
+      </c>
+      <c r="R25" s="113"/>
+    </row>
+    <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="38"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="113"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="36"/>
       <c r="J26" s="33"/>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
-      <c r="M26" s="114"/>
+      <c r="M26" s="114" t="s">
+        <v>52</v>
+      </c>
       <c r="N26" s="114"/>
       <c r="O26" s="114"/>
       <c r="P26" s="114"/>
-      <c r="Q26" s="114"/>
-      <c r="R26" s="114"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q26" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="R26" s="115"/>
+    </row>
+    <row r="27" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="41"/>
+      <c r="C27" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="33"/>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
-      <c r="M27" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40" t="s">
-        <v>4</v>
-      </c>
+      <c r="M27" s="127"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="127"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="37" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
       <c r="G28" s="39"/>
-      <c r="H28" s="42" t="s">
-        <v>36</v>
+      <c r="H28" s="40" t="s">
+        <v>4</v>
       </c>
       <c r="I28" s="41"/>
       <c r="J28" s="33"/>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
       <c r="M28" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
       <c r="Q28" s="39"/>
-      <c r="R28" s="42" t="s">
-        <v>36</v>
+      <c r="R28" s="40" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
       <c r="G29" s="39"/>
       <c r="H29" s="42" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="I29" s="41"/>
       <c r="J29" s="33"/>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
       <c r="M29" s="37" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="N29" s="37"/>
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
       <c r="Q29" s="39"/>
       <c r="R29" s="42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="37" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D30" s="37"/>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
       <c r="G30" s="39"/>
-      <c r="H30" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="44"/>
+      <c r="H30" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="41"/>
       <c r="J30" s="33"/>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
       <c r="M30" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="39"/>
-      <c r="R30" s="43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="8"/>
+      <c r="C31" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="39"/>
-      <c r="H31" s="44"/>
+      <c r="H31" s="43" t="s">
+        <v>37</v>
+      </c>
       <c r="I31" s="44"/>
       <c r="J31" s="33"/>
       <c r="K31" s="37"/>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="37"/>
+      <c r="M31" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N31" s="4"/>
-      <c r="O31" s="8" t="s">
+      <c r="N32" s="4"/>
+      <c r="O32" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="44"/>
-    </row>
-    <row r="32" spans="1:18" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-    </row>
-    <row r="33" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
-      <c r="B33" s="118" t="s">
+      <c r="Q32" s="39"/>
+      <c r="R32" s="44"/>
+    </row>
+    <row r="33" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45"/>
+      <c r="B34" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="46" t="s">
+      <c r="C34" s="132"/>
+      <c r="D34" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E34" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F34" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G34" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="47" t="s">
+      <c r="H34" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="48"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="118" t="s">
+      <c r="I34" s="48"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="119"/>
-      <c r="N33" s="46" t="s">
+      <c r="M34" s="132"/>
+      <c r="N34" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="46" t="s">
+      <c r="O34" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="P33" s="46" t="s">
+      <c r="P34" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="Q33" s="46" t="s">
+      <c r="Q34" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="R33" s="47" t="s">
+      <c r="R34" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="53"/>
-    </row>
-    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="53"/>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="120" t="s">
+      <c r="B36" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="55" t="s">
+      <c r="C36" s="134"/>
+      <c r="D36" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E36" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="56" t="s">
+      <c r="F36" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="56" t="s">
+      <c r="G36" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="57" t="s">
+      <c r="H36" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="58"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="54" t="s">
+      <c r="I36" s="58"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="120" t="s">
+      <c r="L36" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="M35" s="121"/>
-      <c r="N35" s="55" t="s">
+      <c r="M36" s="134"/>
+      <c r="N36" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="O35" s="55" t="s">
+      <c r="O36" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="P35" s="56" t="s">
+      <c r="P36" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="Q35" s="56" t="s">
+      <c r="Q36" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="R35" s="57" t="s">
+      <c r="R36" s="57" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="59" t="s">
+    <row r="37" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="53"/>
-    </row>
-    <row r="37" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="53"/>
+    </row>
+    <row r="38" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="60"/>
+      <c r="B38" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="68" t="s">
+      <c r="C38" s="129"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="69" t="s">
+      <c r="F38" s="61"/>
+      <c r="G38" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="H37" s="69" t="s">
+      <c r="H38" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="I37" s="58"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="115" t="s">
-        <v>29</v>
-      </c>
-      <c r="M37" s="116"/>
-      <c r="N37" s="117"/>
-      <c r="O37" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="R37" s="69" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
       <c r="I38" s="58"/>
       <c r="J38" s="33"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="58"/>
-    </row>
-    <row r="39" spans="1:19" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="111" t="s">
+      <c r="K38" s="60"/>
+      <c r="L38" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="129"/>
+      <c r="N38" s="130"/>
+      <c r="O38" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="R38" s="69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="50"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+    </row>
+    <row r="40" spans="1:19" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="111" t="s">
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="M39" s="112"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="112"/>
-      <c r="P39" s="113"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="71" t="s">
+      <c r="M40" s="125"/>
+      <c r="N40" s="125"/>
+      <c r="O40" s="125"/>
+      <c r="P40" s="126"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="65"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="71" t="s">
+      <c r="D41" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E41" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="91" t="s">
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="N40" s="91" t="s">
+      <c r="N41" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="O40" s="92" t="s">
+      <c r="O41" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="P40" s="93" t="s">
+      <c r="P41" s="93" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
+    <row r="42" spans="1:19" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="58"/>
-    </row>
-    <row r="42" spans="1:19" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="65"/>
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="58"/>
+    </row>
+    <row r="43" spans="1:19" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="65"/>
+      <c r="B43" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C43" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="71" t="s">
+      <c r="D43" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="72" t="s">
+      <c r="E43" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="N42" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="O42" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="P42" s="104"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-    </row>
-    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="100"/>
-      <c r="P43" s="101"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="N43" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="O43" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="P43" s="104"/>
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
     </row>
-    <row r="44" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B44" s="13"/>
@@ -2835,66 +2832,88 @@
       <c r="I44" s="15"/>
       <c r="J44" s="24"/>
       <c r="K44" s="12"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="74"/>
-      <c r="R44" s="74"/>
-    </row>
-    <row r="45" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L45" s="110" t="s">
+      <c r="L44" s="98"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="100"/>
+      <c r="P44" s="101"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+    </row>
+    <row r="45" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="74"/>
+    </row>
+    <row r="46" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="M45" s="110"/>
-      <c r="N45" s="110"/>
-      <c r="O45" s="110"/>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="110"/>
-      <c r="R45" s="110"/>
-    </row>
-    <row r="46" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L46" s="110"/>
-      <c r="M46" s="110"/>
-      <c r="N46" s="110"/>
-      <c r="O46" s="110"/>
-      <c r="P46" s="110"/>
-      <c r="Q46" s="110"/>
-      <c r="R46" s="110"/>
+      <c r="M46" s="123"/>
+      <c r="N46" s="123"/>
+      <c r="O46" s="123"/>
+      <c r="P46" s="123"/>
+      <c r="Q46" s="123"/>
+      <c r="R46" s="123"/>
+    </row>
+    <row r="47" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L47" s="123"/>
+      <c r="M47" s="123"/>
+      <c r="N47" s="123"/>
+      <c r="O47" s="123"/>
+      <c r="P47" s="123"/>
+      <c r="Q47" s="123"/>
+      <c r="R47" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="L46:R47"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="M5:R5"/>
     <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="L45:R46"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M16:O16"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Nash_dom.xlsx
+++ b/app/Отчеты/Nash_dom.xlsx
@@ -1257,10 +1257,69 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1270,15 +1329,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1290,56 +1340,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1738,8 +1738,8 @@
   </sheetPr>
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,10 +1761,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1785,16 +1785,16 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" s="24"/>
-      <c r="K3" s="121" t="s">
+      <c r="K3" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="123"/>
     </row>
     <row r="4" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -1807,18 +1807,18 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="120" t="s">
+      <c r="K4" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120" t="s">
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="120"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
@@ -1833,14 +1833,14 @@
       <c r="J5" s="24"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="112" t="s">
+      <c r="M5" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
@@ -1861,10 +1861,10 @@
       <c r="N6" s="77"/>
       <c r="O6" s="78"/>
       <c r="P6" s="78"/>
-      <c r="Q6" s="113" t="s">
+      <c r="Q6" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="113"/>
+      <c r="R6" s="109"/>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
@@ -1879,16 +1879,16 @@
       <c r="J7" s="24"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="114" t="s">
+      <c r="M7" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="115" t="s">
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="115"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1903,12 +1903,12 @@
       <c r="J8" s="24"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="122"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -2039,11 +2039,11 @@
       <c r="J14" s="24"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="116" t="s">
+      <c r="M14" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
       <c r="P14" s="80" t="s">
         <v>51</v>
       </c>
@@ -2087,11 +2087,11 @@
       <c r="J16" s="24"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="118" t="s">
+      <c r="M16" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
       <c r="P16" s="71" t="s">
         <v>33</v>
       </c>
@@ -2207,28 +2207,28 @@
         <v>8</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
       <c r="I22" s="16"/>
       <c r="J22" s="24"/>
       <c r="K22" s="107" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="7"/>
-      <c r="M22" s="110" t="s">
+      <c r="M22" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="126"/>
     </row>
     <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -2243,14 +2243,14 @@
       <c r="J23" s="24"/>
       <c r="K23" s="107"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="110" t="s">
+      <c r="M23" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="126"/>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -2263,22 +2263,22 @@
       <c r="F24" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="111" t="s">
+      <c r="G24" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="111"/>
+      <c r="H24" s="129"/>
       <c r="I24" s="32"/>
       <c r="J24" s="33"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
-      <c r="M24" s="112" t="s">
+      <c r="M24" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="N24" s="112"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="130"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="130"/>
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -2300,19 +2300,19 @@
       <c r="N25" s="77"/>
       <c r="O25" s="78"/>
       <c r="P25" s="78"/>
-      <c r="Q25" s="113" t="s">
+      <c r="Q25" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="R25" s="113"/>
+      <c r="R25" s="109"/>
     </row>
     <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="35"/>
-      <c r="D26" s="113" t="s">
+      <c r="D26" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="113"/>
+      <c r="E26" s="109"/>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
       <c r="H26" s="36" t="s">
@@ -2322,38 +2322,38 @@
       <c r="J26" s="33"/>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
-      <c r="M26" s="114" t="s">
+      <c r="M26" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="115" t="s">
+      <c r="N26" s="124"/>
+      <c r="O26" s="124"/>
+      <c r="P26" s="124"/>
+      <c r="Q26" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="R26" s="115"/>
+      <c r="R26" s="125"/>
     </row>
     <row r="27" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
       <c r="I27" s="38"/>
       <c r="J27" s="33"/>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
+      <c r="M27" s="114"/>
+      <c r="N27" s="114"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="114"/>
+      <c r="Q27" s="114"/>
+      <c r="R27" s="114"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="34" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
-      <c r="B34" s="131" t="s">
+      <c r="B34" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="132"/>
+      <c r="C34" s="119"/>
       <c r="D34" s="46" t="s">
         <v>16</v>
       </c>
@@ -2533,10 +2533,10 @@
       <c r="I34" s="48"/>
       <c r="J34" s="33"/>
       <c r="K34" s="45"/>
-      <c r="L34" s="131" t="s">
+      <c r="L34" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="M34" s="132"/>
+      <c r="M34" s="119"/>
       <c r="N34" s="46" t="s">
         <v>16</v>
       </c>
@@ -2582,10 +2582,10 @@
       <c r="A36" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="133" t="s">
+      <c r="B36" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="134"/>
+      <c r="C36" s="121"/>
       <c r="D36" s="55" t="s">
         <v>24</v>
       </c>
@@ -2606,10 +2606,10 @@
       <c r="K36" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="L36" s="133" t="s">
+      <c r="L36" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="M36" s="134"/>
+      <c r="M36" s="121"/>
       <c r="N36" s="55" t="s">
         <v>24</v>
       </c>
@@ -2650,11 +2650,11 @@
     </row>
     <row r="38" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="60"/>
-      <c r="B38" s="128" t="s">
+      <c r="B38" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="129"/>
-      <c r="D38" s="130"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="117"/>
       <c r="E38" s="68" t="s">
         <v>30</v>
       </c>
@@ -2668,11 +2668,11 @@
       <c r="I38" s="58"/>
       <c r="J38" s="33"/>
       <c r="K38" s="60"/>
-      <c r="L38" s="128" t="s">
+      <c r="L38" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="M38" s="129"/>
-      <c r="N38" s="130"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="117"/>
       <c r="O38" s="68" t="s">
         <v>30</v>
       </c>
@@ -2706,25 +2706,25 @@
     </row>
     <row r="40" spans="1:19" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="124" t="s">
+      <c r="B40" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="126"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="113"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="26"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="124" t="s">
+      <c r="L40" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="M40" s="125"/>
-      <c r="N40" s="125"/>
-      <c r="O40" s="125"/>
-      <c r="P40" s="126"/>
+      <c r="M40" s="112"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="113"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
     </row>
@@ -2863,27 +2863,45 @@
       <c r="R45" s="74"/>
     </row>
     <row r="46" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L46" s="123" t="s">
+      <c r="L46" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="M46" s="123"/>
-      <c r="N46" s="123"/>
-      <c r="O46" s="123"/>
-      <c r="P46" s="123"/>
-      <c r="Q46" s="123"/>
-      <c r="R46" s="123"/>
+      <c r="M46" s="110"/>
+      <c r="N46" s="110"/>
+      <c r="O46" s="110"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="110"/>
     </row>
     <row r="47" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L47" s="123"/>
-      <c r="M47" s="123"/>
-      <c r="N47" s="123"/>
-      <c r="O47" s="123"/>
-      <c r="P47" s="123"/>
-      <c r="Q47" s="123"/>
-      <c r="R47" s="123"/>
+      <c r="L47" s="110"/>
+      <c r="M47" s="110"/>
+      <c r="N47" s="110"/>
+      <c r="O47" s="110"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="110"/>
+      <c r="R47" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="M8:R8"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="L46:R47"/>
     <mergeCell ref="B40:E40"/>
@@ -2896,24 +2914,6 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="L40:P40"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="K3:R3"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M16:O16"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
